--- a/t/test_out.sampleset.bad.xlsx
+++ b/t/test_out.sampleset.bad.xlsx
@@ -31,12 +31,13 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>subject_id: Missing property.
-TREATMENT: Missing property.
-MOLECULE: Missing property.
-gender: Missing property.
-DISEASE_ONTOLOGY_URI: Missing property.
-PASSAGE_IF_EXPANDED: Missing property.
+          <t>COLLECTION_METHOD: [ATTRIBUTE]:COLLECTION_METHOD: Missing property.
+DISEASE_ONTOLOGY_URI: [ATTRIBUTE]:DISEASE_ONTOLOGY_URI: Missing property.
+MOLECULE: [ATTRIBUTE]:MOLECULE: Missing property.
+PASSAGE_IF_EXPANDED: [ATTRIBUTE]:PASSAGE_IF_EXPANDED: Missing property.
+TREATMENT: [ATTRIBUTE]:TREATMENT: Missing property.
+gender: [ATTRIBUTE]:gender: Missing property.
+subject_id: [ATTRIBUTE]:subject_id: Missing property.
 1 attribute notes</t>
         </r>
       </text>
@@ -50,7 +51,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Not in enum list: -, Anke Bergmann, Anke Bergmann/ Siebert, DSMZ, Felipe Prosper in collaboration with Jose I. Martin-Subero, University of Navarra, ICGC_Siebert/Bergmann, Jose I. Martin-Subero, NCMLS, Nijmegen, Necker's hospital, NIHR Cambridge BioResource, Prof.dr. E. Vellenga, University Medical Centre Groningen - Department of Hematology, Prof: Lucia Altucci  (SECONDA UNIVERSITA' di NAPOLI- IT), Sanquin Amsterdam, Sanquin Blood bank, Nijmegen, the Netherlands, Sanquin_Nijmegen, WP4_Bergmann_Siebert_Martin-Subero.
+          <t xml:space="preserve">[ATTRIBUTE]:BIOMATERIAL_PROVIDER: Not in enum list: -, Anke Bergmann, Anke Bergmann/ Siebert, DSMZ, Felipe Prosper in collaboration with Jose I. Martin-Subero, University of Navarra, ICGC_Siebert/Bergmann, Jose I. Martin-Subero, NCMLS, Nijmegen, Necker's hospital, NIHR Cambridge BioResource, Prof.dr. E. Vellenga, University Medical Centre Groningen - Department of Hematology, Prof: Lucia Altucci  (SECONDA UNIVERSITA' di NAPOLI- IT), Sanquin Amsterdam, Sanquin Blood bank, Nijmegen, the Netherlands, Sanquin_Nijmegen, WP4_Bergmann_Siebert_Martin-Subero.
 </t>
         </r>
       </text>
@@ -64,12 +65,13 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>DISEASE_ONTOLOGY_URI: Missing property.
-gender: Missing property.
-PASSAGE_IF_EXPANDED: Missing property.
-subject_id: Missing property.
-TREATMENT: Missing property.
-MOLECULE: Missing property.
+          <t>COLLECTION_METHOD: [ATTRIBUTE]:COLLECTION_METHOD: Missing property.
+DISEASE_ONTOLOGY_URI: [ATTRIBUTE]:DISEASE_ONTOLOGY_URI: Missing property.
+MOLECULE: [ATTRIBUTE]:MOLECULE: Missing property.
+PASSAGE_IF_EXPANDED: [ATTRIBUTE]:PASSAGE_IF_EXPANDED: Missing property.
+TREATMENT: [ATTRIBUTE]:TREATMENT: Missing property.
+gender: [ATTRIBUTE]:gender: Missing property.
+subject_id: [ATTRIBUTE]:subject_id: Missing property.
 1 attribute notes</t>
         </r>
       </text>
@@ -83,7 +85,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">String does not match '[0-9]+-[0-9]+|NA'
+          <t xml:space="preserve">[ATTRIBUTE]:DONOR_AGE: String does not match '[0-9]+-[0-9]+|NA'
 </t>
         </r>
       </text>
@@ -872,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -880,7 +882,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>1</v>

--- a/t/test_out.sampleset.bad.xlsx
+++ b/t/test_out.sampleset.bad.xlsx
@@ -11,6 +11,7 @@
     <sheet name="values" sheetId="2" r:id="rId2"/>
     <sheet name="units" sheetId="3" r:id="rId3"/>
     <sheet name="uris" sheetId="4" r:id="rId4"/>
+    <sheet name="ref+id" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -31,14 +32,13 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>COLLECTION_METHOD: [ATTRIBUTE]:COLLECTION_METHOD: Missing property.
-DISEASE_ONTOLOGY_URI: [ATTRIBUTE]:DISEASE_ONTOLOGY_URI: Missing property.
-MOLECULE: [ATTRIBUTE]:MOLECULE: Missing property.
-PASSAGE_IF_EXPANDED: [ATTRIBUTE]:PASSAGE_IF_EXPANDED: Missing property.
-TREATMENT: [ATTRIBUTE]:TREATMENT: Missing property.
-gender: [ATTRIBUTE]:gender: Missing property.
-subject_id: [ATTRIBUTE]:subject_id: Missing property.
-1 attribute notes</t>
+          <t>COLLECTION_METHOD: COLLECTION_METHOD: Missing property.
+DISEASE_ONTOLOGY_URI: DISEASE_ONTOLOGY_URI: Missing property.
+MOLECULE: MOLECULE: Missing property.
+PASSAGE_IF_EXPANDED: PASSAGE_IF_EXPANDED: Missing property.
+gender: gender: Missing property.
+subject_id: subject_id: Missing property.
+2 attribute notes</t>
         </r>
       </text>
     </comment>
@@ -51,7 +51,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">[ATTRIBUTE]:BIOMATERIAL_PROVIDER: Not in enum list: -, Anke Bergmann, Anke Bergmann/ Siebert, DSMZ, Felipe Prosper in collaboration with Jose I. Martin-Subero, University of Navarra, ICGC_Siebert/Bergmann, Jose I. Martin-Subero, NCMLS, Nijmegen, Necker's hospital, NIHR Cambridge BioResource, Prof.dr. E. Vellenga, University Medical Centre Groningen - Department of Hematology, Prof: Lucia Altucci  (SECONDA UNIVERSITA' di NAPOLI- IT), Sanquin Amsterdam, Sanquin Blood bank, Nijmegen, the Netherlands, Sanquin_Nijmegen, WP4_Bergmann_Siebert_Martin-Subero.
+          <t xml:space="preserve">BIOMATERIAL_PROVIDER: Not in enum list: -, Anke Bergmann, Anke Bergmann/ Siebert, DSMZ, Felipe Prosper in collaboration with Jose I. Martin-Subero, University of Navarra, ICGC_Siebert/Bergmann, Jose I. Martin-Subero, NCMLS, Nijmegen, Necker's hospital, NIHR Cambridge BioResource, Prof.dr. E. Vellenga, University Medical Centre Groningen - Department of Hematology, Prof: Lucia Altucci  (SECONDA UNIVERSITA' di NAPOLI- IT), Sanquin Amsterdam, Sanquin Blood bank, Nijmegen, the Netherlands, Sanquin_Nijmegen, WP4_Bergmann_Siebert_Martin-Subero.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DONOR_AGE: String does not match '[0-9]+ - [0-9]+|NA'
 </t>
         </r>
       </text>
@@ -65,14 +79,14 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>COLLECTION_METHOD: [ATTRIBUTE]:COLLECTION_METHOD: Missing property.
-DISEASE_ONTOLOGY_URI: [ATTRIBUTE]:DISEASE_ONTOLOGY_URI: Missing property.
-MOLECULE: [ATTRIBUTE]:MOLECULE: Missing property.
-PASSAGE_IF_EXPANDED: [ATTRIBUTE]:PASSAGE_IF_EXPANDED: Missing property.
-TREATMENT: [ATTRIBUTE]:TREATMENT: Missing property.
-gender: [ATTRIBUTE]:gender: Missing property.
-subject_id: [ATTRIBUTE]:subject_id: Missing property.
-1 attribute notes</t>
+          <t>CELL_TYPE: CELL_TYPE: Missing property.
+DISEASE_ONTOLOGY_URI: DISEASE_ONTOLOGY_URI: Missing property.
+MARKERS: MARKERS: Missing property.
+MOLECULE: MOLECULE: Missing property.
+PASSAGE_IF_EXPANDED: PASSAGE_IF_EXPANDED: Missing property.
+gender: gender: Missing property.
+subject_id: subject_id: Missing property.
+2 attribute notes</t>
         </r>
       </text>
     </comment>
@@ -85,7 +99,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">[ATTRIBUTE]:DONOR_AGE: String does not match '[0-9]+-[0-9]+|NA'
+          <t xml:space="preserve">DONOR_AGE: String does not match '[0-9]+ - [0-9]+|NA'
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SAMPLE_ONTOLOGY_URI: String does not match 'http://purl.obolibrary.org/obo/CL_+'
 </t>
         </r>
       </text>
@@ -95,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -190,6 +218,9 @@
     <t>NIHR Cambridge BioResource</t>
   </si>
   <si>
+    <t>Primary Cell</t>
+  </si>
+  <si>
     <t>S00DQ0</t>
   </si>
   <si>
@@ -212,6 +243,9 @@
   </si>
   <si>
     <t>uri</t>
+  </si>
+  <si>
+    <t>ref_id</t>
   </si>
 </sst>
 </file>
@@ -686,7 +720,7 @@
       <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -722,7 +756,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -731,21 +765,21 @@
         <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -767,7 +801,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -778,13 +812,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -822,29 +856,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -852,89 +883,89 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -942,10 +973,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -953,18 +984,29 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -983,13 +1025,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1010,13 +1052,40 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
